--- a/biology/Zoologie/Grimpar_géant/Grimpar_géant.xlsx
+++ b/biology/Zoologie/Grimpar_géant/Grimpar_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_g%C3%A9ant</t>
+          <t>Grimpar_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiphocolaptes promeropirhynchus
 Le Grimpar géant (Xiphocolaptes promeropirhynchus) est une espèce de passereaux de la famille des Furnariidae (Furnariidés en français).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_g%C3%A9ant</t>
+          <t>Grimpar_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grimpar géant mesure environ 30 cm. Le plumage est brun. La tête et la nuque sont couverts d'étroites rayures fauve pâle. Les bords extérieurs de la couverture alaire, le croupion et la queue sont bleu foncé. Le dessous est brun, la gorge blanchâtre. La poitrine et l'abdomen sont également rayés de fauve pâle. Les couvertures sous-alaires bleu foncé et le bas de l'abdomen sont tachetés de noir. Les sexes sont semblables[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grimpar géant mesure environ 30 cm. Le plumage est brun. La tête et la nuque sont couverts d'étroites rayures fauve pâle. Les bords extérieurs de la couverture alaire, le croupion et la queue sont bleu foncé. Le dessous est brun, la gorge blanchâtre. La poitrine et l'abdomen sont également rayés de fauve pâle. Les couvertures sous-alaires bleu foncé et le bas de l'abdomen sont tachetés de noir. Les sexes sont semblables.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_g%C3%A9ant</t>
+          <t>Grimpar_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grimpar vermiculé se rencontre du sud du Mexique à travers l'ensemble de l'Amérique centrale jusqu'au nord du Panama, du nord de la Colombie, à l'Équateur à l'est du Pérou, à la Bolivie et au Brésil, du nord au sud du Venezuela, en Guyane française, au Surinam et au Guyana[2]. Il fréquente les plaines et forêts au pied des montagnes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grimpar vermiculé se rencontre du sud du Mexique à travers l'ensemble de l'Amérique centrale jusqu'au nord du Panama, du nord de la Colombie, à l'Équateur à l'est du Pérou, à la Bolivie et au Brésil, du nord au sud du Venezuela, en Guyane française, au Surinam et au Guyana. Il fréquente les plaines et forêts au pied des montagnes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_g%C3%A9ant</t>
+          <t>Grimpar_géant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il niche dans des trous d'arbre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il niche dans des trous d'arbre.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grimpar_g%C3%A9ant</t>
+          <t>Grimpar_géant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des vingt-trois sous-espèces suivantes (ordre phylogénique) :
 Xiphocolaptes promeropirhynchus omiltemensis Nelson, 1903 ;
